--- a/Client/ExcelConfig/Excel/LevelupMEnergy.xlsx
+++ b/Client/ExcelConfig/Excel/LevelupMEnergy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22500" windowHeight="12195"/>
+    <workbookView windowWidth="23955" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,10 +62,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -76,54 +122,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,13 +132,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,44 +146,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -198,6 +153,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -205,9 +199,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,25 +215,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,157 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,6 +406,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -448,54 +489,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -508,162 +501,162 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1012,10 +1005,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1074,7 +1067,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1083,12 +1076,12 @@
         <v>30</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1102,7 +1095,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1111,12 +1104,12 @@
         <v>30</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1125,12 +1118,12 @@
         <v>30</v>
       </c>
       <c r="D7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1139,18 +1132,18 @@
         <v>30</v>
       </c>
       <c r="D8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1">
         <v>4</v>
@@ -1158,13 +1151,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1">
         <v>4</v>
@@ -1172,13 +1165,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1">
         <v>4</v>
@@ -1186,13 +1179,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1">
         <v>4</v>
@@ -1200,13 +1193,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
@@ -1214,15 +1207,29 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
         <v>42</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D15" s="1">
         <v>4</v>
       </c>
     </row>
